--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业主营业务收入.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2018-至今)/工业企业主营业务收入.xlsx
@@ -2454,7 +2454,7 @@
         <v>10.8</v>
       </c>
       <c r="H4" t="n">
-        <v>165.1</v>
+        <v>90.7</v>
       </c>
       <c r="I4" t="n">
         <v>629.6</v>
@@ -2463,7 +2463,7 @@
         <v>5.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.799999999999999</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="L4" t="n">
         <v>12</v>
@@ -2553,7 +2553,7 @@
         <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>99.5</v>
+        <v>6.199999999999974</v>
       </c>
       <c r="AP4" t="n">
         <v>444.6</v>
@@ -2589,7 +2589,7 @@
         <v>5.9</v>
       </c>
       <c r="BA4" t="n">
-        <v>859.5</v>
+        <v>743.1000000000022</v>
       </c>
       <c r="BB4" t="n">
         <v>3335</v>
@@ -2607,7 +2607,7 @@
         <v>6.4</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.400000000000091</v>
+        <v>2.000000000000455</v>
       </c>
       <c r="BH4" t="n">
         <v>740.7</v>
@@ -2769,7 +2769,7 @@
         <v>5.4</v>
       </c>
       <c r="DI4" t="n">
-        <v>4.899999999999977</v>
+        <v>1.899999999999963</v>
       </c>
       <c r="DJ4" t="n">
         <v>311.7</v>
@@ -2778,7 +2778,7 @@
         <v>6.8</v>
       </c>
       <c r="DL4" t="n">
-        <v>2776</v>
+        <v>1405.200000000004</v>
       </c>
       <c r="DM4" t="n">
         <v>11928.5</v>
@@ -2796,7 +2796,7 @@
         <v>6.1</v>
       </c>
       <c r="DR4" t="n">
-        <v>219.2999999999988</v>
+        <v>25.30000000000241</v>
       </c>
       <c r="DS4" t="n">
         <v>16747.3</v>
@@ -2832,7 +2832,7 @@
         <v>15.6</v>
       </c>
       <c r="ED4" t="n">
-        <v>12.79999999999978</v>
+        <v>1.199999999999189</v>
       </c>
       <c r="EE4" t="n">
         <v>1087.7</v>
@@ -3001,7 +3001,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>152.0999999999999</v>
+        <v>5.599999999999909</v>
       </c>
       <c r="I5" t="n">
         <v>806.4</v>
@@ -3028,7 +3028,7 @@
         <v>4.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2645.600000000035</v>
+        <v>604.2000000000119</v>
       </c>
       <c r="R5" t="n">
         <v>382945.5</v>
@@ -3037,7 +3037,7 @@
         <v>10.2</v>
       </c>
       <c r="T5" t="n">
-        <v>5445.900000000001</v>
+        <v>3861.900000000001</v>
       </c>
       <c r="U5" t="n">
         <v>31134.2</v>
@@ -3055,7 +3055,7 @@
         <v>15.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>129.4999999999991</v>
+        <v>64.69999999999914</v>
       </c>
       <c r="AA5" t="n">
         <v>10334.8</v>
@@ -3064,7 +3064,7 @@
         <v>13.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>575.7000000000003</v>
+        <v>445.3000000000026</v>
       </c>
       <c r="AD5" t="n">
         <v>2825.9</v>
@@ -3073,7 +3073,7 @@
         <v>7.1</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.299999999999727</v>
+        <v>3.099999999999454</v>
       </c>
       <c r="AG5" t="n">
         <v>3215.5</v>
@@ -3082,7 +3082,7 @@
         <v>6.7</v>
       </c>
       <c r="AI5" t="n">
-        <v>3175.70000000007</v>
+        <v>1339.600000000122</v>
       </c>
       <c r="AJ5" t="n">
         <v>429176.7</v>
@@ -3100,7 +3100,7 @@
         <v>11.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>35.09999999999999</v>
+        <v>28.90000000000001</v>
       </c>
       <c r="AP5" t="n">
         <v>549.5</v>
@@ -3109,7 +3109,7 @@
         <v>4.6</v>
       </c>
       <c r="AR5" t="n">
-        <v>65.79999999999905</v>
+        <v>20.89999999999804</v>
       </c>
       <c r="AS5" t="n">
         <v>5739.6</v>
@@ -3136,7 +3136,7 @@
         <v>5</v>
       </c>
       <c r="BA5" t="n">
-        <v>797.2999999999997</v>
+        <v>25.09999999999809</v>
       </c>
       <c r="BB5" t="n">
         <v>4184.9</v>
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="BD5" t="n">
-        <v>2243.9</v>
+        <v>1690.7</v>
       </c>
       <c r="BE5" t="n">
         <v>11030.1</v>
@@ -3154,7 +3154,7 @@
         <v>5.4</v>
       </c>
       <c r="BG5" t="n">
-        <v>12.90000000000012</v>
+        <v>3.899999999999211</v>
       </c>
       <c r="BH5" t="n">
         <v>934.3</v>
@@ -3163,7 +3163,7 @@
         <v>10.1</v>
       </c>
       <c r="BJ5" t="n">
-        <v>277.8999999999951</v>
+        <v>108.6999999999907</v>
       </c>
       <c r="BK5" t="n">
         <v>34100.7</v>
@@ -3172,7 +3172,7 @@
         <v>11.1</v>
       </c>
       <c r="BM5" t="n">
-        <v>664.3000000000002</v>
+        <v>389.5000000000009</v>
       </c>
       <c r="BN5" t="n">
         <v>4229.6</v>
@@ -3181,7 +3181,7 @@
         <v>11.4</v>
       </c>
       <c r="BP5" t="n">
-        <v>1910.4</v>
+        <v>1235.200000000004</v>
       </c>
       <c r="BQ5" t="n">
         <v>9635</v>
@@ -3217,7 +3217,7 @@
         <v>12.5</v>
       </c>
       <c r="CB5" t="n">
-        <v>769.1999999999998</v>
+        <v>579.1999999999925</v>
       </c>
       <c r="CC5" t="n">
         <v>25828.4</v>
@@ -3253,7 +3253,7 @@
         <v>14.8</v>
       </c>
       <c r="CN5" t="n">
-        <v>2604.4</v>
+        <v>1905.199999999996</v>
       </c>
       <c r="CO5" t="n">
         <v>12734.5</v>
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1495.2</v>
+        <v>1441.199999999996</v>
       </c>
       <c r="CR5" t="n">
         <v>7439.5</v>
@@ -3289,7 +3289,7 @@
         <v>10</v>
       </c>
       <c r="CZ5" t="n">
-        <v>28.89999999999895</v>
+        <v>4.099999999999902</v>
       </c>
       <c r="DA5" t="n">
         <v>5983.4</v>
@@ -3307,7 +3307,7 @@
         <v>10.8</v>
       </c>
       <c r="DF5" t="n">
-        <v>95.09999999999673</v>
+        <v>2.099999999992193</v>
       </c>
       <c r="DG5" t="n">
         <v>17999.2</v>
@@ -3316,7 +3316,7 @@
         <v>5.7</v>
       </c>
       <c r="DI5" t="n">
-        <v>87.69999999999999</v>
+        <v>77.10000000000012</v>
       </c>
       <c r="DJ5" t="n">
         <v>399.9</v>
@@ -3334,7 +3334,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="DO5" t="n">
-        <v>240.8000000000002</v>
+        <v>3.200000000000799</v>
       </c>
       <c r="DP5" t="n">
         <v>4674</v>
@@ -3343,7 +3343,7 @@
         <v>4.9</v>
       </c>
       <c r="DR5" t="n">
-        <v>4115.5</v>
+        <v>3529.299999999998</v>
       </c>
       <c r="DS5" t="n">
         <v>21481.3</v>
@@ -3352,7 +3352,7 @@
         <v>14.2</v>
       </c>
       <c r="DU5" t="n">
-        <v>298.8</v>
+        <v>175.6000000000008</v>
       </c>
       <c r="DV5" t="n">
         <v>1466.4</v>
@@ -3370,7 +3370,7 @@
         <v>7.9</v>
       </c>
       <c r="EA5" t="n">
-        <v>4567.899999999998</v>
+        <v>1620.299999999978</v>
       </c>
       <c r="EB5" t="n">
         <v>25083.9</v>
@@ -3379,7 +3379,7 @@
         <v>15.2</v>
       </c>
       <c r="ED5" t="n">
-        <v>254.3</v>
+        <v>220.5000000000018</v>
       </c>
       <c r="EE5" t="n">
         <v>1362.5</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2068.300000000001</v>
+        <v>1185.500000000005</v>
       </c>
       <c r="C6" t="n">
         <v>15893.6</v>
@@ -3539,7 +3539,7 @@
         <v>13.3</v>
       </c>
       <c r="E6" t="n">
-        <v>573.5999999999995</v>
+        <v>483.5999999999995</v>
       </c>
       <c r="F6" t="n">
         <v>3950</v>
@@ -3548,7 +3548,7 @@
         <v>9.6</v>
       </c>
       <c r="H6" t="n">
-        <v>141.4000000000001</v>
+        <v>130.2000000000003</v>
       </c>
       <c r="I6" t="n">
         <v>978.6</v>
@@ -3557,7 +3557,7 @@
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>1.899999999999999</v>
+        <v>1.099999999999987</v>
       </c>
       <c r="L6" t="n">
         <v>18.8</v>
@@ -3566,7 +3566,7 @@
         <v>6.8</v>
       </c>
       <c r="N6" t="n">
-        <v>3520</v>
+        <v>3397.599999999992</v>
       </c>
       <c r="O6" t="n">
         <v>25006.5</v>
@@ -3575,7 +3575,7 @@
         <v>4.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>67572.89999999997</v>
+        <v>63114.6999999999</v>
       </c>
       <c r="R6" t="n">
         <v>464782.8</v>
@@ -3584,7 +3584,7 @@
         <v>9.9</v>
       </c>
       <c r="T6" t="n">
-        <v>5146.599999999999</v>
+        <v>96.69999999999891</v>
       </c>
       <c r="U6" t="n">
         <v>37195.6</v>
@@ -3593,7 +3593,7 @@
         <v>10.9</v>
       </c>
       <c r="W6" t="n">
-        <v>555.8000000000002</v>
+        <v>487.4000000000024</v>
       </c>
       <c r="X6" t="n">
         <v>3873.1</v>
@@ -3602,7 +3602,7 @@
         <v>16.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>1552.900000000001</v>
+        <v>1229.300000000005</v>
       </c>
       <c r="AA6" t="n">
         <v>12577.3</v>
@@ -3611,7 +3611,7 @@
         <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>531.7999999999997</v>
+        <v>21.29999999999831</v>
       </c>
       <c r="AD6" t="n">
         <v>3429</v>
@@ -3620,7 +3620,7 @@
         <v>6.7</v>
       </c>
       <c r="AF6" t="n">
-        <v>574.0999999999999</v>
+        <v>556.5000000000018</v>
       </c>
       <c r="AG6" t="n">
         <v>3927.6</v>
@@ -3629,7 +3629,7 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>76612.19999999995</v>
+        <v>69417.69999999952</v>
       </c>
       <c r="AJ6" t="n">
         <v>520710.4</v>
@@ -3647,7 +3647,7 @@
         <v>18.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>119.8</v>
+        <v>14.50000000000004</v>
       </c>
       <c r="AP6" t="n">
         <v>703.6</v>
@@ -3656,7 +3656,7 @@
         <v>6.7</v>
       </c>
       <c r="AR6" t="n">
-        <v>1137.4</v>
+        <v>1008.900000000007</v>
       </c>
       <c r="AS6" t="n">
         <v>7006.3</v>
@@ -3665,7 +3665,7 @@
         <v>6.7</v>
       </c>
       <c r="AU6" t="n">
-        <v>3794.099999999999</v>
+        <v>2158.099999999987</v>
       </c>
       <c r="AV6" t="n">
         <v>24600.6</v>
@@ -3674,7 +3674,7 @@
         <v>10.9</v>
       </c>
       <c r="AX6" t="n">
-        <v>307</v>
+        <v>189.8</v>
       </c>
       <c r="AY6" t="n">
         <v>2149.2</v>
@@ -3692,7 +3692,7 @@
         <v>3.6</v>
       </c>
       <c r="BD6" t="n">
-        <v>1965.6</v>
+        <v>136.5999999999999</v>
       </c>
       <c r="BE6" t="n">
         <v>13369</v>
@@ -3710,7 +3710,7 @@
         <v>10.2</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5929.400000000001</v>
+        <v>5071.600000000026</v>
       </c>
       <c r="BK6" t="n">
         <v>40930.7</v>
@@ -3728,7 +3728,7 @@
         <v>10.4</v>
       </c>
       <c r="BP6" t="n">
-        <v>1864.9</v>
+        <v>123.299999999999</v>
       </c>
       <c r="BQ6" t="n">
         <v>11783.4</v>
@@ -3737,7 +3737,7 @@
         <v>5.8</v>
       </c>
       <c r="BS6" t="n">
-        <v>390.1999999999998</v>
+        <v>294.6000000000013</v>
       </c>
       <c r="BT6" t="n">
         <v>3398.4</v>
@@ -3746,7 +3746,7 @@
         <v>18.8</v>
       </c>
       <c r="BV6" t="n">
-        <v>495.9000000000024</v>
+        <v>60.70000000000533</v>
       </c>
       <c r="BW6" t="n">
         <v>33905.4</v>
@@ -3755,7 +3755,7 @@
         <v>12.5</v>
       </c>
       <c r="BY6" t="n">
-        <v>539.0000000000027</v>
+        <v>140.5000000000054</v>
       </c>
       <c r="BZ6" t="n">
         <v>29362.7</v>
@@ -3764,7 +3764,7 @@
         <v>11.9</v>
       </c>
       <c r="CB6" t="n">
-        <v>4815.599999999999</v>
+        <v>2023.800000000012</v>
       </c>
       <c r="CC6" t="n">
         <v>31733.8</v>
@@ -3773,7 +3773,7 @@
         <v>9.4</v>
       </c>
       <c r="CE6" t="n">
-        <v>973.5</v>
+        <v>855.1000000000004</v>
       </c>
       <c r="CF6" t="n">
         <v>6205</v>
@@ -3791,7 +3791,7 @@
         <v>18</v>
       </c>
       <c r="CK6" t="n">
-        <v>503.1999999999998</v>
+        <v>92.79999999999821</v>
       </c>
       <c r="CL6" t="n">
         <v>3948.4</v>
@@ -3800,7 +3800,7 @@
         <v>17.6</v>
       </c>
       <c r="CN6" t="n">
-        <v>2339.400000000001</v>
+        <v>84.60000000000309</v>
       </c>
       <c r="CO6" t="n">
         <v>15384.4</v>
@@ -3818,7 +3818,7 @@
         <v>3.9</v>
       </c>
       <c r="CT6" t="n">
-        <v>7629.200000000004</v>
+        <v>3256.000000000007</v>
       </c>
       <c r="CU6" t="n">
         <v>47963.6</v>
@@ -3827,7 +3827,7 @@
         <v>8.1</v>
       </c>
       <c r="CW6" t="n">
-        <v>2987.799999999999</v>
+        <v>2561.799999999999</v>
       </c>
       <c r="CX6" t="n">
         <v>20725.2</v>
@@ -3836,7 +3836,7 @@
         <v>9.5</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1019.200000000001</v>
+        <v>978.0000000000023</v>
       </c>
       <c r="DA6" t="n">
         <v>7210.7</v>
@@ -3845,7 +3845,7 @@
         <v>12.5</v>
       </c>
       <c r="DC6" t="n">
-        <v>1146.700000000001</v>
+        <v>758.7000000000048</v>
       </c>
       <c r="DD6" t="n">
         <v>8202.6</v>
@@ -3854,7 +3854,7 @@
         <v>10.7</v>
       </c>
       <c r="DF6" t="n">
-        <v>3336.100000000002</v>
+        <v>3188.200000000027</v>
       </c>
       <c r="DG6" t="n">
         <v>22022.2</v>
@@ -3863,7 +3863,7 @@
         <v>7.2</v>
       </c>
       <c r="DI6" t="n">
-        <v>82.90000000000003</v>
+        <v>0.1000000000000227</v>
       </c>
       <c r="DJ6" t="n">
         <v>488.6</v>
@@ -3872,7 +3872,7 @@
         <v>4.4</v>
       </c>
       <c r="DL6" t="n">
-        <v>2429.299999999999</v>
+        <v>1407.699999999995</v>
       </c>
       <c r="DM6" t="n">
         <v>18341.6</v>
@@ -3881,7 +3881,7 @@
         <v>9.1</v>
       </c>
       <c r="DO6" t="n">
-        <v>794.7000000000007</v>
+        <v>425.4999999999984</v>
       </c>
       <c r="DP6" t="n">
         <v>5871</v>
@@ -3890,7 +3890,7 @@
         <v>3.1</v>
       </c>
       <c r="DR6" t="n">
-        <v>3628.799999999999</v>
+        <v>25.69999999999891</v>
       </c>
       <c r="DS6" t="n">
         <v>26262.4</v>
@@ -3899,7 +3899,7 @@
         <v>14.5</v>
       </c>
       <c r="DU6" t="n">
-        <v>287.9000000000001</v>
+        <v>19.89999999999986</v>
       </c>
       <c r="DV6" t="n">
         <v>1798.8</v>
@@ -3908,7 +3908,7 @@
         <v>7.4</v>
       </c>
       <c r="DX6" t="n">
-        <v>1200.699999999999</v>
+        <v>853.4999999999952</v>
       </c>
       <c r="DY6" t="n">
         <v>9673.6</v>
@@ -3926,7 +3926,7 @@
         <v>15.8</v>
       </c>
       <c r="ED6" t="n">
-        <v>251.4000000000001</v>
+        <v>9.899999999999892</v>
       </c>
       <c r="EE6" t="n">
         <v>1620</v>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1921.199999999999</v>
+        <v>73.59999999999695</v>
       </c>
       <c r="C7" t="n">
         <v>18168.6</v>
@@ -4122,7 +4122,7 @@
         <v>4.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>66689.20000000007</v>
+        <v>1761.90000000014</v>
       </c>
       <c r="R7" t="n">
         <v>539018.7</v>
@@ -4131,7 +4131,7 @@
         <v>9.9</v>
       </c>
       <c r="T7" t="n">
-        <v>284.8000000000011</v>
+        <v>91.4000000000033</v>
       </c>
       <c r="U7" t="n">
         <v>43029.1</v>
@@ -4158,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="AC7" t="n">
-        <v>480.6999999999998</v>
+        <v>459.4000000000015</v>
       </c>
       <c r="AD7" t="n">
         <v>3979.9</v>
@@ -4176,7 +4176,7 @@
         <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>75933.70000000007</v>
+        <v>2497.200000000186</v>
       </c>
       <c r="AJ7" t="n">
         <v>604771.2</v>
@@ -4185,7 +4185,7 @@
         <v>9.9</v>
       </c>
       <c r="AL7" t="n">
-        <v>266.7</v>
+        <v>71.49999999999999</v>
       </c>
       <c r="AM7" t="n">
         <v>2139.2</v>
@@ -4221,7 +4221,7 @@
         <v>10.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>273</v>
+        <v>24.59999999999999</v>
       </c>
       <c r="AY7" t="n">
         <v>2466.1</v>
@@ -4230,7 +4230,7 @@
         <v>5.8</v>
       </c>
       <c r="BA7" t="n">
-        <v>604.9000000000005</v>
+        <v>476.8999999999987</v>
       </c>
       <c r="BB7" t="n">
         <v>5882.6</v>
@@ -4257,7 +4257,7 @@
         <v>9.5</v>
       </c>
       <c r="BJ7" t="n">
-        <v>5898.800000000003</v>
+        <v>247.2999999999984</v>
       </c>
       <c r="BK7" t="n">
         <v>47072.5</v>
@@ -4266,7 +4266,7 @@
         <v>9.6</v>
       </c>
       <c r="BM7" t="n">
-        <v>707.5999999999995</v>
+        <v>419.5999999999995</v>
       </c>
       <c r="BN7" t="n">
         <v>5727.7</v>
@@ -4293,7 +4293,7 @@
         <v>19.4</v>
       </c>
       <c r="BV7" t="n">
-        <v>196.2000000000035</v>
+        <v>14.09999999998755</v>
       </c>
       <c r="BW7" t="n">
         <v>40059.5</v>
@@ -4311,7 +4311,7 @@
         <v>11.1</v>
       </c>
       <c r="CB7" t="n">
-        <v>4437.099999999999</v>
+        <v>390.6999999999994</v>
       </c>
       <c r="CC7" t="n">
         <v>36801.6</v>
@@ -4347,7 +4347,7 @@
         <v>20.2</v>
       </c>
       <c r="CN7" t="n">
-        <v>2153.599999999999</v>
+        <v>2068.999999999996</v>
       </c>
       <c r="CO7" t="n">
         <v>17854.8</v>
@@ -4374,7 +4374,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CW7" t="n">
-        <v>2700.400000000001</v>
+        <v>32.10000000000218</v>
       </c>
       <c r="CX7" t="n">
         <v>23997.8</v>
@@ -4392,7 +4392,7 @@
         <v>12.5</v>
       </c>
       <c r="DC7" t="n">
-        <v>1044.4</v>
+        <v>91.69999999999709</v>
       </c>
       <c r="DD7" t="n">
         <v>9378.9</v>
@@ -4410,7 +4410,7 @@
         <v>7.6</v>
       </c>
       <c r="DI7" t="n">
-        <v>72.60000000000002</v>
+        <v>72.39999999999998</v>
       </c>
       <c r="DJ7" t="n">
         <v>574.8</v>
@@ -4419,7 +4419,7 @@
         <v>4.3</v>
       </c>
       <c r="DL7" t="n">
-        <v>2087.799999999999</v>
+        <v>169.3000000000018</v>
       </c>
       <c r="DM7" t="n">
         <v>20944.9</v>
@@ -4446,7 +4446,7 @@
         <v>14.4</v>
       </c>
       <c r="DU7" t="n">
-        <v>258.4000000000001</v>
+        <v>218.6000000000003</v>
       </c>
       <c r="DV7" t="n">
         <v>2096.5</v>
@@ -4464,7 +4464,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="EA7" t="n">
-        <v>368.0999999999958</v>
+        <v>89.09999999999039</v>
       </c>
       <c r="EB7" t="n">
         <v>36136.6</v>
@@ -4473,7 +4473,7 @@
         <v>16.4</v>
       </c>
       <c r="ED7" t="n">
-        <v>29.89999999999992</v>
+        <v>10.10000000000014</v>
       </c>
       <c r="EE7" t="n">
         <v>1870.3</v>
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.80000000000109</v>
+        <v>2.200000000004138</v>
       </c>
       <c r="C8" t="n">
         <v>20222.9</v>
@@ -4633,7 +4633,7 @@
         <v>12.2</v>
       </c>
       <c r="E8" t="n">
-        <v>593</v>
+        <v>260.5999999999949</v>
       </c>
       <c r="F8" t="n">
         <v>5314.3</v>
@@ -4642,7 +4642,7 @@
         <v>9.9</v>
       </c>
       <c r="H8" t="n">
-        <v>64.69999999999982</v>
+        <v>31.49999999999977</v>
       </c>
       <c r="I8" t="n">
         <v>1173.9</v>
@@ -4651,7 +4651,7 @@
         <v>7.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.000000000000004</v>
+        <v>1.400000000000008</v>
       </c>
       <c r="L8" t="n">
         <v>20.6</v>
@@ -4660,7 +4660,7 @@
         <v>3.5</v>
       </c>
       <c r="N8" t="n">
-        <v>3602.600000000002</v>
+        <v>2656.199999999994</v>
       </c>
       <c r="O8" t="n">
         <v>32589.3</v>
@@ -4669,7 +4669,7 @@
         <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>3288.09999999986</v>
+        <v>1526.19999999972</v>
       </c>
       <c r="R8" t="n">
         <v>611783.7</v>
@@ -4687,7 +4687,7 @@
         <v>11.5</v>
       </c>
       <c r="W8" t="n">
-        <v>603</v>
+        <v>115.7999999999992</v>
       </c>
       <c r="X8" t="n">
         <v>5323.2</v>
@@ -4696,7 +4696,7 @@
         <v>16.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>188.400000000001</v>
+        <v>28.50000000000728</v>
       </c>
       <c r="AA8" t="n">
         <v>16195.2</v>
@@ -4723,7 +4723,7 @@
         <v>6.3</v>
       </c>
       <c r="AI8" t="n">
-        <v>2815.899999999907</v>
+        <v>318.6999999997211</v>
       </c>
       <c r="AJ8" t="n">
         <v>687763</v>
@@ -4741,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="AO8" t="n">
-        <v>17.30000000000011</v>
+        <v>2.300000000000111</v>
       </c>
       <c r="AP8" t="n">
         <v>964.2</v>
@@ -4750,7 +4750,7 @@
         <v>6.6</v>
       </c>
       <c r="AR8" t="n">
-        <v>1088.799999999999</v>
+        <v>945.1999999999992</v>
       </c>
       <c r="AS8" t="n">
         <v>9401.200000000001</v>
@@ -4759,7 +4759,7 @@
         <v>5.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>3793.000000000004</v>
+        <v>2452.200000000004</v>
       </c>
       <c r="AV8" t="n">
         <v>32987.9</v>
@@ -4768,7 +4768,7 @@
         <v>9.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>41.69999999999982</v>
+        <v>17.09999999999983</v>
       </c>
       <c r="AY8" t="n">
         <v>2705.5</v>
@@ -4795,7 +4795,7 @@
         <v>5.4</v>
       </c>
       <c r="BG8" t="n">
-        <v>6.900000000000091</v>
+        <v>1.500000000000398</v>
       </c>
       <c r="BH8" t="n">
         <v>1560.7</v>
@@ -4804,7 +4804,7 @@
         <v>9</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1135.699999999997</v>
+        <v>641.1000000000004</v>
       </c>
       <c r="BK8" t="n">
         <v>53141</v>
@@ -4822,7 +4822,7 @@
         <v>10.1</v>
       </c>
       <c r="BP8" t="n">
-        <v>119.5000000000009</v>
+        <v>71.5000000000009</v>
       </c>
       <c r="BQ8" t="n">
         <v>15735.8</v>
@@ -4831,7 +4831,7 @@
         <v>5.8</v>
       </c>
       <c r="BS8" t="n">
-        <v>437.5999999999995</v>
+        <v>21.59999999999751</v>
       </c>
       <c r="BT8" t="n">
         <v>4479.9</v>
@@ -4840,7 +4840,7 @@
         <v>19.6</v>
       </c>
       <c r="BV8" t="n">
-        <v>5503.5</v>
+        <v>4900.800000000003</v>
       </c>
       <c r="BW8" t="n">
         <v>46683.1</v>
@@ -4849,7 +4849,7 @@
         <v>11.8</v>
       </c>
       <c r="BY8" t="n">
-        <v>4862</v>
+        <v>4500.800000000007</v>
       </c>
       <c r="BZ8" t="n">
         <v>40642.6</v>
@@ -4858,7 +4858,7 @@
         <v>11.2</v>
       </c>
       <c r="CB8" t="n">
-        <v>632.3000000000011</v>
+        <v>241.6000000000017</v>
       </c>
       <c r="CC8" t="n">
         <v>41355.5</v>
@@ -4930,7 +4930,7 @@
         <v>8.9</v>
       </c>
       <c r="CZ8" t="n">
-        <v>54.69999999999982</v>
+        <v>8.000000000000675</v>
       </c>
       <c r="DA8" t="n">
         <v>9508.6</v>
@@ -4939,7 +4939,7 @@
         <v>11.9</v>
       </c>
       <c r="DC8" t="n">
-        <v>239.3000000000009</v>
+        <v>147.6000000000038</v>
       </c>
       <c r="DD8" t="n">
         <v>10466.3</v>
@@ -4948,7 +4948,7 @@
         <v>9</v>
       </c>
       <c r="DF8" t="n">
-        <v>3268.800000000003</v>
+        <v>3231.60000000002</v>
       </c>
       <c r="DG8" t="n">
         <v>29296.1</v>
@@ -4966,7 +4966,7 @@
         <v>6.9</v>
       </c>
       <c r="DL8" t="n">
-        <v>301.6000000000022</v>
+        <v>132.3000000000004</v>
       </c>
       <c r="DM8" t="n">
         <v>23345.4</v>
@@ -4975,7 +4975,7 @@
         <v>9.4</v>
       </c>
       <c r="DO8" t="n">
-        <v>121.1000000000004</v>
+        <v>39.50000000000186</v>
       </c>
       <c r="DP8" t="n">
         <v>7482.4</v>
@@ -5002,7 +5002,7 @@
         <v>6.7</v>
       </c>
       <c r="DX8" t="n">
-        <v>1304.6</v>
+        <v>719.3999999999958</v>
       </c>
       <c r="DY8" t="n">
         <v>12415.2</v>
@@ -5011,7 +5011,7 @@
         <v>7.7</v>
       </c>
       <c r="EA8" t="n">
-        <v>4821.200000000004</v>
+        <v>4046.300000000034</v>
       </c>
       <c r="EB8" t="n">
         <v>41907.1</v>
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.70000000000095</v>
+        <v>37.49999999999681</v>
       </c>
       <c r="C9" t="n">
         <v>22394.4</v>
@@ -5180,7 +5180,7 @@
         <v>11.9</v>
       </c>
       <c r="E9" t="n">
-        <v>588.3999999999996</v>
+        <v>78.50000000000091</v>
       </c>
       <c r="F9" t="n">
         <v>5921.1</v>
@@ -5189,7 +5189,7 @@
         <v>9.1</v>
       </c>
       <c r="H9" t="n">
-        <v>50.00000000000023</v>
+        <v>18.50000000000046</v>
       </c>
       <c r="I9" t="n">
         <v>1280.7</v>
@@ -5198,7 +5198,7 @@
         <v>7.9</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>0.299999999999994</v>
       </c>
       <c r="L9" t="n">
         <v>23.7</v>
@@ -5225,7 +5225,7 @@
         <v>9.4</v>
       </c>
       <c r="T9" t="n">
-        <v>432.8000000000102</v>
+        <v>216.8000000000357</v>
       </c>
       <c r="U9" t="n">
         <v>55232.7</v>
@@ -5243,7 +5243,7 @@
         <v>14.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>1731.900000000001</v>
+        <v>1298.099999999985</v>
       </c>
       <c r="AA9" t="n">
         <v>18203.7</v>
@@ -5252,7 +5252,7 @@
         <v>13.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>477</v>
+        <v>232.5999999999985</v>
       </c>
       <c r="AD9" t="n">
         <v>5042.9</v>
@@ -5279,7 +5279,7 @@
         <v>9.4</v>
       </c>
       <c r="AL9" t="n">
-        <v>289.5</v>
+        <v>85.89999999999999</v>
       </c>
       <c r="AM9" t="n">
         <v>2924.8</v>
@@ -5288,7 +5288,7 @@
         <v>20.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>61.89999999999986</v>
+        <v>22.69999999999942</v>
       </c>
       <c r="AP9" t="n">
         <v>1124.6</v>
@@ -5297,7 +5297,7 @@
         <v>7.5</v>
       </c>
       <c r="AR9" t="n">
-        <v>1049.1</v>
+        <v>32.10000000000093</v>
       </c>
       <c r="AS9" t="n">
         <v>10470.1</v>
@@ -5315,7 +5315,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AX9" t="n">
-        <v>60.20000000000029</v>
+        <v>18.50000000000047</v>
       </c>
       <c r="AY9" t="n">
         <v>2730.7</v>
@@ -5324,7 +5324,7 @@
         <v>3.2</v>
       </c>
       <c r="BA9" t="n">
-        <v>775.7999999999993</v>
+        <v>145.5000000000008</v>
       </c>
       <c r="BB9" t="n">
         <v>7439.8</v>
@@ -5342,7 +5342,7 @@
         <v>4.9</v>
       </c>
       <c r="BG9" t="n">
-        <v>190</v>
+        <v>173.199999999999</v>
       </c>
       <c r="BH9" t="n">
         <v>1780.7</v>
@@ -5351,7 +5351,7 @@
         <v>8.9</v>
       </c>
       <c r="BJ9" t="n">
-        <v>6963.299999999996</v>
+        <v>2667.800000000006</v>
       </c>
       <c r="BK9" t="n">
         <v>59881.3</v>
@@ -5360,7 +5360,7 @@
         <v>7.2</v>
       </c>
       <c r="BM9" t="n">
-        <v>672.1999999999998</v>
+        <v>78.59999999999781</v>
       </c>
       <c r="BN9" t="n">
         <v>7352.3</v>
@@ -5369,7 +5369,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="BP9" t="n">
-        <v>1975.099999999999</v>
+        <v>1569.099999999995</v>
       </c>
       <c r="BQ9" t="n">
         <v>17857.5</v>
@@ -5387,7 +5387,7 @@
         <v>20.1</v>
       </c>
       <c r="BV9" t="n">
-        <v>5453.099999999999</v>
+        <v>145.800000000002</v>
       </c>
       <c r="BW9" t="n">
         <v>52558.3</v>
@@ -5396,7 +5396,7 @@
         <v>11.3</v>
       </c>
       <c r="BY9" t="n">
-        <v>4815.899999999994</v>
+        <v>44.19999999999254</v>
       </c>
       <c r="BZ9" t="n">
         <v>45756</v>
@@ -5423,7 +5423,7 @@
         <v>4.3</v>
       </c>
       <c r="CH9" t="n">
-        <v>3343.700000000001</v>
+        <v>987.3000000000104</v>
       </c>
       <c r="CI9" t="n">
         <v>34451.6</v>
@@ -5432,7 +5432,7 @@
         <v>21.1</v>
       </c>
       <c r="CK9" t="n">
-        <v>29.59999999999945</v>
+        <v>5.899999999999629</v>
       </c>
       <c r="CL9" t="n">
         <v>6074.5</v>
@@ -5441,7 +5441,7 @@
         <v>22.8</v>
       </c>
       <c r="CN9" t="n">
-        <v>155.3999999999978</v>
+        <v>67.09999999999579</v>
       </c>
       <c r="CO9" t="n">
         <v>22352.7</v>
@@ -5459,7 +5459,7 @@
         <v>3.5</v>
       </c>
       <c r="CT9" t="n">
-        <v>7311.400000000009</v>
+        <v>5059.000000000015</v>
       </c>
       <c r="CU9" t="n">
         <v>75954.60000000001</v>
@@ -5468,7 +5468,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="CW9" t="n">
-        <v>211</v>
+        <v>198.600000000004</v>
       </c>
       <c r="CX9" t="n">
         <v>29624.4</v>
@@ -5477,7 +5477,7 @@
         <v>8.5</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1060.4</v>
+        <v>981.699999999998</v>
       </c>
       <c r="DA9" t="n">
         <v>10577.6</v>
@@ -5486,7 +5486,7 @@
         <v>10</v>
       </c>
       <c r="DC9" t="n">
-        <v>1048.4</v>
+        <v>91.19999999999661</v>
       </c>
       <c r="DD9" t="n">
         <v>11807.2</v>
@@ -5504,7 +5504,7 @@
         <v>7.8</v>
       </c>
       <c r="DI9" t="n">
-        <v>87.10000000000002</v>
+        <v>7.900000000000208</v>
       </c>
       <c r="DJ9" t="n">
         <v>761.6</v>
@@ -5522,7 +5522,7 @@
         <v>9.1</v>
       </c>
       <c r="DO9" t="n">
-        <v>818.1999999999989</v>
+        <v>537.7999999999938</v>
       </c>
       <c r="DP9" t="n">
         <v>8448.700000000001</v>
@@ -5718,7 +5718,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>54.50000000000023</v>
+        <v>14.79999999999928</v>
       </c>
       <c r="C10" t="n">
         <v>24482.8</v>
@@ -5736,7 +5736,7 @@
         <v>8.9</v>
       </c>
       <c r="H10" t="n">
-        <v>131.8</v>
+        <v>13.2999999999991</v>
       </c>
       <c r="I10" t="n">
         <v>1429.5</v>
@@ -5745,7 +5745,7 @@
         <v>7.1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3000000000000012</v>
+        <v>7.216449660063518e-15</v>
       </c>
       <c r="L10" t="n">
         <v>25.4</v>
@@ -5763,7 +5763,7 @@
         <v>4.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1938.300000000047</v>
+        <v>795.0999999998594</v>
       </c>
       <c r="R10" t="n">
         <v>762219.1</v>
@@ -5772,7 +5772,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="T10" t="n">
-        <v>4942.099999999999</v>
+        <v>3534.899999999921</v>
       </c>
       <c r="U10" t="n">
         <v>61493.7</v>
@@ -5817,7 +5817,7 @@
         <v>5.4</v>
       </c>
       <c r="AI10" t="n">
-        <v>2398.900000000023</v>
+        <v>1410.900000000023</v>
       </c>
       <c r="AJ10" t="n">
         <v>856830.7</v>
@@ -5826,7 +5826,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AL10" t="n">
-        <v>267.9000000000001</v>
+        <v>80.2000000000001</v>
       </c>
       <c r="AM10" t="n">
         <v>3297.8</v>
@@ -5835,7 +5835,7 @@
         <v>21.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>88.10000000000014</v>
+        <v>1.200000000000749</v>
       </c>
       <c r="AP10" t="n">
         <v>1276.1</v>
@@ -5844,7 +5844,7 @@
         <v>15.1</v>
       </c>
       <c r="AR10" t="n">
-        <v>1034.300000000001</v>
+        <v>1002.2</v>
       </c>
       <c r="AS10" t="n">
         <v>11519.4</v>
@@ -5853,7 +5853,7 @@
         <v>4.6</v>
       </c>
       <c r="AU10" t="n">
-        <v>3855</v>
+        <v>2686.200000000028</v>
       </c>
       <c r="AV10" t="n">
         <v>41032.5</v>
@@ -5862,7 +5862,7 @@
         <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>222.6999999999998</v>
+        <v>106.999999999998</v>
       </c>
       <c r="AY10" t="n">
         <v>2850.9</v>
@@ -5880,7 +5880,7 @@
         <v>5</v>
       </c>
       <c r="BD10" t="n">
-        <v>1921.200000000001</v>
+        <v>409.599999999997</v>
       </c>
       <c r="BE10" t="n">
         <v>21131.8</v>
@@ -5916,7 +5916,7 @@
         <v>7.7</v>
       </c>
       <c r="BP10" t="n">
-        <v>1742.900000000001</v>
+        <v>90.30000000000496</v>
       </c>
       <c r="BQ10" t="n">
         <v>19923</v>
@@ -5925,7 +5925,7 @@
         <v>5.7</v>
       </c>
       <c r="BS10" t="n">
-        <v>129.1999999999989</v>
+        <v>90.79999999999409</v>
       </c>
       <c r="BT10" t="n">
         <v>5586.9</v>
@@ -5934,7 +5934,7 @@
         <v>20.7</v>
       </c>
       <c r="BV10" t="n">
-        <v>337.9000000000005</v>
+        <v>46.29999999999649</v>
       </c>
       <c r="BW10" t="n">
         <v>58074.5</v>
@@ -5943,7 +5943,7 @@
         <v>10.2</v>
       </c>
       <c r="BY10" t="n">
-        <v>207.2000000000116</v>
+        <v>118.8000000000266</v>
       </c>
       <c r="BZ10" t="n">
         <v>50502.6</v>
@@ -5952,7 +5952,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="CB10" t="n">
-        <v>239.3000000000029</v>
+        <v>172.1000000000168</v>
       </c>
       <c r="CC10" t="n">
         <v>51806.6</v>
@@ -5961,7 +5961,7 @@
         <v>7</v>
       </c>
       <c r="CE10" t="n">
-        <v>87.30000000000109</v>
+        <v>44.10000000000037</v>
       </c>
       <c r="CF10" t="n">
         <v>9895.299999999999</v>
@@ -5970,7 +5970,7 @@
         <v>4</v>
       </c>
       <c r="CH10" t="n">
-        <v>3339.800000000003</v>
+        <v>585.1999999999989</v>
       </c>
       <c r="CI10" t="n">
         <v>38965</v>
@@ -5979,7 +5979,7 @@
         <v>22.6</v>
       </c>
       <c r="CK10" t="n">
-        <v>60.90000000000055</v>
+        <v>13.60000000000221</v>
       </c>
       <c r="CL10" t="n">
         <v>6879.8</v>
@@ -5988,7 +5988,7 @@
         <v>24.4</v>
       </c>
       <c r="CN10" t="n">
-        <v>2028.900000000001</v>
+        <v>1672.200000000015</v>
       </c>
       <c r="CO10" t="n">
         <v>24782.9</v>
@@ -6015,7 +6015,7 @@
         <v>10.3</v>
       </c>
       <c r="CW10" t="n">
-        <v>2663.999999999996</v>
+        <v>1838.59999999999</v>
       </c>
       <c r="CX10" t="n">
         <v>32691.6</v>
@@ -6024,7 +6024,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1041.4</v>
+        <v>35.70000000000005</v>
       </c>
       <c r="DA10" t="n">
         <v>11665.2</v>
@@ -6033,7 +6033,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="DC10" t="n">
-        <v>948.7999999999993</v>
+        <v>139.7</v>
       </c>
       <c r="DD10" t="n">
         <v>12898.9</v>
@@ -6042,7 +6042,7 @@
         <v>8.1</v>
       </c>
       <c r="DF10" t="n">
-        <v>122.7000000000039</v>
+        <v>76.70000000003117</v>
       </c>
       <c r="DG10" t="n">
         <v>36537.1</v>
@@ -6078,7 +6078,7 @@
         <v>2.1</v>
       </c>
       <c r="DR10" t="n">
-        <v>552.0000000000041</v>
+        <v>54.00000000000409</v>
       </c>
       <c r="DS10" t="n">
         <v>41008.2</v>
@@ -6096,7 +6096,7 @@
         <v>5.9</v>
       </c>
       <c r="DX10" t="n">
-        <v>1281.9</v>
+        <v>1019.099999999996</v>
       </c>
       <c r="DY10" t="n">
         <v>15261.1</v>
@@ -6105,7 +6105,7 @@
         <v>7.5</v>
       </c>
       <c r="EA10" t="n">
-        <v>4691.400000000001</v>
+        <v>4293.40000000003</v>
       </c>
       <c r="EB10" t="n">
         <v>53128</v>
@@ -6114,7 +6114,7 @@
         <v>15.8</v>
       </c>
       <c r="ED10" t="n">
-        <v>275.4000000000001</v>
+        <v>249.3999999999982</v>
       </c>
       <c r="EE10" t="n">
         <v>2720.1</v>
@@ -6274,7 +6274,7 @@
         <v>11.5</v>
       </c>
       <c r="E11" t="n">
-        <v>134</v>
+        <v>10.79999999999928</v>
       </c>
       <c r="F11" t="n">
         <v>7205.2</v>
@@ -6283,7 +6283,7 @@
         <v>8.1</v>
       </c>
       <c r="H11" t="n">
-        <v>128.3</v>
+        <v>1.400000000001571</v>
       </c>
       <c r="I11" t="n">
         <v>1561.2</v>
@@ -6292,7 +6292,7 @@
         <v>6.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.599999999999998</v>
+        <v>1.399999999999994</v>
       </c>
       <c r="L11" t="n">
         <v>27.7</v>
@@ -6301,7 +6301,7 @@
         <v>-3.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3038.900000000001</v>
+        <v>3012.899999999973</v>
       </c>
       <c r="O11" t="n">
         <v>44211</v>
@@ -6310,7 +6310,7 @@
         <v>3.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>67471.09999999998</v>
+        <v>61432.70000000007</v>
       </c>
       <c r="R11" t="n">
         <v>839666.7</v>
@@ -6319,7 +6319,7 @@
         <v>9.1</v>
       </c>
       <c r="T11" t="n">
-        <v>3825.599999999999</v>
+        <v>19.9000000000492</v>
       </c>
       <c r="U11" t="n">
         <v>66701.7</v>
@@ -6328,7 +6328,7 @@
         <v>10.3</v>
       </c>
       <c r="W11" t="n">
-        <v>57.40000000000055</v>
+        <v>23.800000000002</v>
       </c>
       <c r="X11" t="n">
         <v>7280.6</v>
@@ -6337,7 +6337,7 @@
         <v>13.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>1629.200000000001</v>
+        <v>912.0000000000168</v>
       </c>
       <c r="AA11" t="n">
         <v>22213.8</v>
@@ -6346,7 +6346,7 @@
         <v>12.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>326.6999999999998</v>
+        <v>211.499999999999</v>
       </c>
       <c r="AD11" t="n">
         <v>6040.9</v>
@@ -6355,7 +6355,7 @@
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>469.2999999999993</v>
+        <v>251.2999999999993</v>
       </c>
       <c r="AG11" t="n">
         <v>6607.8</v>
@@ -6364,7 +6364,7 @@
         <v>5.7</v>
       </c>
       <c r="AI11" t="n">
-        <v>76758.59999999998</v>
+        <v>68644.99999999988</v>
       </c>
       <c r="AJ11" t="n">
         <v>944218.1</v>
@@ -6382,7 +6382,7 @@
         <v>22.1</v>
       </c>
       <c r="AO11" t="n">
-        <v>109.2</v>
+        <v>21.09999999999987</v>
       </c>
       <c r="AP11" t="n">
         <v>1449.6</v>
@@ -6409,7 +6409,7 @@
         <v>8.6</v>
       </c>
       <c r="AX11" t="n">
-        <v>183.1000000000004</v>
+        <v>20.6000000000009</v>
       </c>
       <c r="AY11" t="n">
         <v>3163.5</v>
@@ -6418,7 +6418,7 @@
         <v>2.9</v>
       </c>
       <c r="BA11" t="n">
-        <v>305.1000000000004</v>
+        <v>214.6999999999989</v>
       </c>
       <c r="BB11" t="n">
         <v>9065.5</v>
@@ -6427,7 +6427,7 @@
         <v>4.4</v>
       </c>
       <c r="BD11" t="n">
-        <v>1398.600000000002</v>
+        <v>233.200000000003</v>
       </c>
       <c r="BE11" t="n">
         <v>23078</v>
@@ -6436,7 +6436,7 @@
         <v>4.1</v>
       </c>
       <c r="BG11" t="n">
-        <v>47.4999999999998</v>
+        <v>41.09999999999937</v>
       </c>
       <c r="BH11" t="n">
         <v>2224.9</v>
@@ -6454,7 +6454,7 @@
         <v>4.7</v>
       </c>
       <c r="BM11" t="n">
-        <v>713.0999999999995</v>
+        <v>538.699999999998</v>
       </c>
       <c r="BN11" t="n">
         <v>8749.9</v>
@@ -6472,7 +6472,7 @@
         <v>6.8</v>
       </c>
       <c r="BS11" t="n">
-        <v>225.3000000000002</v>
+        <v>96.1000000000013</v>
       </c>
       <c r="BT11" t="n">
         <v>6281.2</v>
@@ -6481,7 +6481,7 @@
         <v>20.7</v>
       </c>
       <c r="BV11" t="n">
-        <v>600.4000000000005</v>
+        <v>70.40000000000163</v>
       </c>
       <c r="BW11" t="n">
         <v>64138.1</v>
@@ -6490,7 +6490,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="BY11" t="n">
-        <v>327.3999999999942</v>
+        <v>120.1999999999826</v>
       </c>
       <c r="BZ11" t="n">
         <v>55632.1</v>
@@ -6499,7 +6499,7 @@
         <v>8.5</v>
       </c>
       <c r="CB11" t="n">
-        <v>5178.400000000001</v>
+        <v>4321.999999999968</v>
       </c>
       <c r="CC11" t="n">
         <v>57472.5</v>
@@ -6508,7 +6508,7 @@
         <v>7</v>
       </c>
       <c r="CE11" t="n">
-        <v>55.69999999999936</v>
+        <v>0.7999999999988106</v>
       </c>
       <c r="CF11" t="n">
         <v>10968.2</v>
@@ -6517,7 +6517,7 @@
         <v>4.5</v>
       </c>
       <c r="CH11" t="n">
-        <v>3059.799999999996</v>
+        <v>1889.399999999998</v>
       </c>
       <c r="CI11" t="n">
         <v>42999.5</v>
@@ -6526,7 +6526,7 @@
         <v>22.4</v>
       </c>
       <c r="CK11" t="n">
-        <v>50</v>
+        <v>18.6999999999989</v>
       </c>
       <c r="CL11" t="n">
         <v>7655.2</v>
@@ -6544,7 +6544,7 @@
         <v>1.7</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1275.299999999999</v>
+        <v>924.5000000000028</v>
       </c>
       <c r="CR11" t="n">
         <v>15708.9</v>
@@ -6562,7 +6562,7 @@
         <v>9.9</v>
       </c>
       <c r="CW11" t="n">
-        <v>2091.5</v>
+        <v>51.20000000000709</v>
       </c>
       <c r="CX11" t="n">
         <v>35615.3</v>
@@ -6571,7 +6571,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="CZ11" t="n">
-        <v>956.8000000000011</v>
+        <v>885.400000000001</v>
       </c>
       <c r="DA11" t="n">
         <v>12815.4</v>
@@ -6580,7 +6580,7 @@
         <v>9.4</v>
       </c>
       <c r="DC11" t="n">
-        <v>236.7000000000007</v>
+        <v>97.00000000000071</v>
       </c>
       <c r="DD11" t="n">
         <v>13915.6</v>
@@ -6589,7 +6589,7 @@
         <v>8</v>
       </c>
       <c r="DF11" t="n">
-        <v>2896.200000000004</v>
+        <v>2474.399999999946</v>
       </c>
       <c r="DG11" t="n">
         <v>40413.2</v>
@@ -6598,7 +6598,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="DI11" t="n">
-        <v>20.80000000000007</v>
+        <v>8.200000000000161</v>
       </c>
       <c r="DJ11" t="n">
         <v>966.5</v>
@@ -6607,7 +6607,7 @@
         <v>7</v>
       </c>
       <c r="DL11" t="n">
-        <v>1819.799999999999</v>
+        <v>1748.599999999987</v>
       </c>
       <c r="DM11" t="n">
         <v>31587.9</v>
@@ -6616,7 +6616,7 @@
         <v>9.6</v>
       </c>
       <c r="DO11" t="n">
-        <v>403.2999999999993</v>
+        <v>267.2999999999921</v>
       </c>
       <c r="DP11" t="n">
         <v>10198.4</v>
@@ -6625,7 +6625,7 @@
         <v>2.5</v>
       </c>
       <c r="DR11" t="n">
-        <v>2589.299999999996</v>
+        <v>1875.29999999998</v>
       </c>
       <c r="DS11" t="n">
         <v>45401.2</v>
@@ -6634,7 +6634,7 @@
         <v>15.1</v>
       </c>
       <c r="DU11" t="n">
-        <v>229.1999999999998</v>
+        <v>178.4000000000006</v>
       </c>
       <c r="DV11" t="n">
         <v>3147.1</v>
